--- a/mean and standard deviation.xlsx
+++ b/mean and standard deviation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saray\Sarah\MASTERS PROJECT\GhanaEcoServices2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24E25F-3612-4A97-B9D5-ACEB5A5D01F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35086AF0-DDFD-48CA-B525-5A2C37D66472}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>Variable contributions</t>
   </si>
@@ -41,9 +41,6 @@
     <t>AUC</t>
   </si>
   <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
     <t>Annual precipitation</t>
   </si>
   <si>
@@ -56,16 +53,67 @@
     <t>Landcover</t>
   </si>
   <si>
-    <t>Annual precipitation permutation importance</t>
-  </si>
-  <si>
-    <t>Temperature permutation importance</t>
-  </si>
-  <si>
-    <t>Population permutation importance</t>
-  </si>
-  <si>
-    <t>Landcover permutation importance</t>
+    <t>Malaria species</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>3rd Quartile</t>
+  </si>
+  <si>
+    <t>1st Quartile</t>
+  </si>
+  <si>
+    <t>Agriculture species</t>
+  </si>
+  <si>
+    <t>Anaesthetic species</t>
+  </si>
+  <si>
+    <t>Dentistry species</t>
+  </si>
+  <si>
+    <t>Dermatology species</t>
+  </si>
+  <si>
+    <t>Endocrinology species</t>
+  </si>
+  <si>
+    <t>Excipients species</t>
+  </si>
+  <si>
+    <t>Orthopaedics species</t>
+  </si>
+  <si>
+    <t>Psychiatry species</t>
+  </si>
+  <si>
+    <t>Fever species</t>
+  </si>
+  <si>
+    <t>Healthcare species</t>
+  </si>
+  <si>
+    <t>Immunology species</t>
+  </si>
+  <si>
+    <t>Infertility species</t>
+  </si>
+  <si>
+    <t>Musculoskeletal and cardiology species</t>
+  </si>
+  <si>
+    <t>Neurology species</t>
+  </si>
+  <si>
+    <t>Obstetrics and gynaecology species</t>
+  </si>
+  <si>
+    <t>Oncology species</t>
+  </si>
+  <si>
+    <t>Ophthalmology species</t>
   </si>
 </sst>
 </file>
@@ -120,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -128,6 +176,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -445,127 +496,1568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.76285670000000005</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6.5866739999999993E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>12.501777799999999</v>
-      </c>
-      <c r="C3" s="3">
-        <v>20.086369340000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>34.589875599999999</v>
-      </c>
-      <c r="C4" s="3">
-        <v>33.120069110000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>6.9554456</v>
-      </c>
-      <c r="C5" s="3">
-        <v>13.41020213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+        <v>0.76</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="E5" s="2">
         <v>7</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="3">
-        <v>45.952903300000003</v>
+        <v>0.81</v>
       </c>
       <c r="C6" s="3">
-        <v>30.469392719999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+        <v>14.1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>63.8</v>
+      </c>
+      <c r="E6" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
-        <v>17.512784400000001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>24.366344089999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45.719302200000001</v>
-      </c>
-      <c r="C8" s="3">
-        <v>34.69363164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="F6" s="3">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
-        <v>5.3619177999999996</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10.20250353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>31.405997800000002</v>
-      </c>
-      <c r="C10" s="3">
-        <v>30.737931060000001</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D12" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F16" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C17" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D18" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>67.7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="F23" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>84</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="F29" s="2">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>67.7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F30" s="2">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C35" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D36" s="2">
+        <v>47.2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D39" s="2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F39" s="2">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D40" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F40" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F41" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F42" s="2">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F46" s="2">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C47" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C48" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="D48" s="2">
+        <v>60.8</v>
+      </c>
+      <c r="E48" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F48" s="2">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D51" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F51" s="2">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D52" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F52" s="2">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D53" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F53" s="2">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D54" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F54" s="2">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="2">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C59" s="2">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E59" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="F59" s="2">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C60" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="E60" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="F60" s="2">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D64" s="2">
+        <v>29</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F64" s="2">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C65" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>38</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F65" s="2">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C66" s="2">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2">
+        <v>69.3</v>
+      </c>
+      <c r="E66" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="F66" s="2">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D70" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C71" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D71" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="E71" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F71" s="2">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C72" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D72" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="F72" s="2">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F75" s="2">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D76" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C77" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="D77" s="2">
+        <v>33</v>
+      </c>
+      <c r="E77" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="F77" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>59</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F78" s="2">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="60.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C81" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="D81" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F81" s="2">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C82" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="D82" s="2">
+        <v>52.2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F82" s="2">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C83" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>52.2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F83" s="2">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C84" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="D84" s="2">
+        <v>75</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F84" s="2">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F88" s="2">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D89" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="E89" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F89" s="2">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C90" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D90" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F90" s="2">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="45.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F94" s="2">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C95" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="D95" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F95" s="2">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C96" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="D96" s="2">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F96" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F100" s="2">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C101" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="D101" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="E101" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="F101" s="2">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C102" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="D102" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="E102" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="F102" s="2">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F105" s="2">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C106" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D106" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E106" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F106" s="2">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C107" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="D107" s="2">
+        <v>29</v>
+      </c>
+      <c r="E107" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F107" s="2">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C108" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="D108" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E108" s="2">
+        <v>6</v>
+      </c>
+      <c r="F108" s="2">
+        <v>70.400000000000006</v>
       </c>
     </row>
   </sheetData>
